--- a/data/landings/cdfw/public/fish_bulletins/raw/fb63/raw/Table24.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb63/raw/Table24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb63/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F33B7A-DC10-524A-B861-D3F019CA0890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F869BEA5-C0EE-D948-A89E-932E8FD147ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
   <si>
     <r>
       <rPr>
@@ -157,6 +157,9 @@
   <si>
     <t>Total check</t>
   </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +167,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -256,26 +259,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -593,11 +596,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26"/>
     <col min="2" max="2" width="19"/>
@@ -605,7 +608,7 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -631,8 +634,10 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -641,8 +646,10 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
@@ -651,8 +658,10 @@
       </c>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
@@ -662,7 +671,9 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -671,8 +682,10 @@
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -695,8 +708,10 @@
       </c>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
@@ -705,8 +720,10 @@
       </c>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
@@ -715,8 +732,10 @@
       </c>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -727,16 +746,22 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" s="11">
         <v>824</v>
       </c>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
@@ -746,7 +771,9 @@
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
@@ -756,7 +783,9 @@
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
@@ -765,8 +794,10 @@
       </c>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
@@ -776,7 +807,9 @@
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
@@ -785,8 +818,10 @@
       </c>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B18" s="7" t="s">
         <v>11</v>
       </c>
@@ -797,7 +832,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -809,8 +844,10 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
@@ -819,8 +856,10 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
@@ -829,8 +868,10 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
@@ -839,8 +880,10 @@
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B23" s="7" t="s">
         <v>11</v>
       </c>
@@ -863,8 +906,10 @@
       </c>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="B25" s="7" t="s">
         <v>9</v>
       </c>
@@ -873,8 +918,10 @@
       </c>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
@@ -885,7 +932,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>16</v>
       </c>
@@ -897,8 +944,10 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B28" s="7" t="s">
         <v>12</v>
       </c>
@@ -908,7 +957,9 @@
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B29" s="7" t="s">
         <v>9</v>
       </c>
@@ -917,8 +968,10 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B30" s="7" t="s">
         <v>13</v>
       </c>
@@ -928,7 +981,9 @@
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
@@ -937,8 +992,10 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A32" s="6"/>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B32" s="7" t="s">
         <v>17</v>
       </c>
@@ -947,8 +1004,10 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B33" s="5" t="s">
         <v>26</v>
       </c>
@@ -957,8 +1016,10 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A34" s="6"/>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B34" s="7" t="s">
         <v>6</v>
       </c>
@@ -967,8 +1028,10 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B35" s="7" t="s">
         <v>18</v>
       </c>
@@ -977,8 +1040,10 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A36" s="6"/>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B36" s="7" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1066,10 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B38" s="7" t="s">
         <v>25</v>
       </c>
@@ -1011,8 +1078,10 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A39" s="6"/>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B39" s="7" t="s">
         <v>9</v>
       </c>
@@ -1022,7 +1091,9 @@
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B40" s="5" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +1103,9 @@
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
+      <c r="A41" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B41" s="7" t="s">
         <v>20</v>
       </c>
@@ -1041,8 +1114,10 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B42" s="7" t="s">
         <v>18</v>
       </c>
@@ -1051,8 +1126,10 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B43" s="7" t="s">
         <v>21</v>
       </c>
@@ -1085,7 +1162,7 @@
       </c>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
         <v>12</v>
@@ -1131,7 +1208,7 @@
         <v>10871</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="17" t="s">
         <v>29</v>
       </c>
@@ -1140,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
   </sheetData>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb63/raw/Table24.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb63/raw/Table24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb63/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F869BEA5-C0EE-D948-A89E-932E8FD147ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E81ECF-BAC6-8445-BEAE-B3693901FE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
   <si>
     <r>
       <rPr>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1152,8 +1152,10 @@
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
+    <row r="45" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="B45" s="5" t="s">
         <v>5</v>
       </c>
@@ -1162,8 +1164,10 @@
       </c>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A46" s="6"/>
+    <row r="46" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="B46" s="7" t="s">
         <v>12</v>
       </c>
@@ -1172,8 +1176,10 @@
       </c>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
+    <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="B47" s="7" t="s">
         <v>11</v>
       </c>
